--- a/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8EFC3C-5418-4EF0-9B24-0036C55BC94E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B94E5-6B55-4E38-8040-6C51AD0F240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="休止届" sheetId="17" state="hidden" r:id="rId1"/>
     <sheet name="解約通知書" sheetId="18" state="hidden" r:id="rId2"/>
     <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書" sheetId="37" r:id="rId3"/>
-    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書_お客様用" sheetId="42" r:id="rId4"/>
+    <sheet name="アプラス預金口座振替依頼書_記入例" sheetId="45" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">アプラス預金口座振替依頼書_記入例!$A$1:$O$120</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">アプラス預金口座振替依頼書_自動払込利用申込書!$A$1:$K$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">アプラス預金口座振替依頼書_自動払込利用申込書_お客様用!$A$1:$M$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">解約通知書!$A$1:$AA$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">休止届!$A$1:$AA$50</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>TEL</t>
     <phoneticPr fontId="1"/>
@@ -510,28 +510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【アプラス預金口座振替依頼書　記入例】</t>
-    <rPh sb="5" eb="7">
-      <t>ヨキン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フリカエ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>イライショ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>口振申込書 ミック到着</t>
     <rPh sb="0" eb="2">
       <t>コウフリ</t>
@@ -590,8 +568,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="184" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="185" formatCode="m&quot;月&quot;"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -847,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1025,24 +1003,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1224,362 +1184,359 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="24" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="24" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1588,16 +1545,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1667,7 +1624,7 @@
         <xdr:cNvPr id="2" name="郵便番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1691,7 @@
         <xdr:cNvPr id="3" name="住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1754,7 @@
         <xdr:cNvPr id="4" name="住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1825,7 @@
         <xdr:cNvPr id="5" name="FAX番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1896,7 @@
         <xdr:cNvPr id="6" name="送付先">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +1962,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2012,7 @@
         <xdr:cNvPr id="8" name="顧客No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2080,7 @@
         <xdr:cNvPr id="9" name="得意先No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2153,7 @@
         <xdr:cNvPr id="9" name="郵便番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2220,7 @@
         <xdr:cNvPr id="10" name="住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2283,7 @@
         <xdr:cNvPr id="11" name="住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2354,7 @@
         <xdr:cNvPr id="13" name="送付先">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2420,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2470,7 @@
         <xdr:cNvPr id="7" name="顧客住所１">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2542,7 @@
         <xdr:cNvPr id="8" name="顧客名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2609,7 @@
         <xdr:cNvPr id="12" name="顧客住所２">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2676,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2785,7 @@
         <xdr:cNvPr id="16" name="顧客No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2853,7 @@
         <xdr:cNvPr id="17" name="得意先No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2921,7 @@
         <xdr:cNvPr id="19" name="FAX番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +2997,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3057,7 @@
         <xdr:cNvPr id="4" name="顧客No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3120,7 @@
         <xdr:cNvPr id="6" name="得意先No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3188,7 @@
                   <a14:compatExt spid="_x0000_s95233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000001740100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3297,7 +3254,7 @@
         <xdr:cNvPr id="5" name="得意先Noタイトル">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,7 +3341,7 @@
                   <a14:compatExt spid="_x0000_s95234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002740100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3442,7 +3399,7 @@
                   <a14:compatExt spid="_x0000_s95235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000003740100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3500,7 +3457,7 @@
                   <a14:compatExt spid="_x0000_s95236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000004740100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3553,7 +3510,7 @@
         <xdr:cNvPr id="11" name="契約者名フリガナ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3588,7 @@
         <xdr:cNvPr id="12" name="契約者名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3709,7 +3666,7 @@
         <xdr:cNvPr id="13" name="契約者住所">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3746,7 @@
         <xdr:cNvPr id="14" name="契約者郵便番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3850,7 +3807,7 @@
         <xdr:cNvPr id="15" name="契約者電話番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +3889,7 @@
         <xdr:cNvPr id="16" name="APLUSコード">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3999,7 +3956,7 @@
                   <a14:compatExt spid="_x0000_s95237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000005740100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4081,7 +4038,7 @@
                   <a14:compatExt spid="_x0000_s95238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000006740100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006740100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4145,25 +4102,86 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403514</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="158750"/>
+          <a:ext cx="11960514" cy="17014825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右矢印 1">
+        <xdr:cNvPr id="14" name="右矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4171,8 +4189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="1228725"/>
-          <a:ext cx="2981325" cy="171450"/>
+          <a:off x="2333625" y="1390650"/>
+          <a:ext cx="2933700" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4217,21 +4235,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右矢印 2">
+        <xdr:cNvPr id="15" name="右矢印 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4239,8 +4257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686300" y="1895475"/>
-          <a:ext cx="2981325" cy="171450"/>
+          <a:off x="4343400" y="2095500"/>
+          <a:ext cx="2933700" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4285,21 +4303,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3">
+        <xdr:cNvPr id="16" name="グループ化 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4307,18 +4325,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3056965" y="705410"/>
-          <a:ext cx="916081" cy="291914"/>
+          <a:off x="3799609" y="19151311"/>
+          <a:ext cx="1407102" cy="383598"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
+          <xdr:cNvPr id="17" name="角丸四角形吹き出し 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4376,10 +4394,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <xdr:cNvPr id="18" name="テキスト ボックス 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4430,21 +4448,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
+        <xdr:cNvPr id="19" name="グループ化 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4452,18 +4470,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5035924" y="714935"/>
-          <a:ext cx="916080" cy="291914"/>
+          <a:off x="6515100" y="19160836"/>
+          <a:ext cx="1407102" cy="383598"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="角丸四角形吹き出し 7">
+          <xdr:cNvPr id="20" name="角丸四角形吹き出し 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4521,10 +4539,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <xdr:cNvPr id="21" name="テキスト ボックス 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4575,21 +4593,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
+        <xdr:cNvPr id="22" name="グループ化 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,18 +4615,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7024407" y="695885"/>
-          <a:ext cx="916081" cy="284069"/>
+          <a:off x="9240116" y="19141786"/>
+          <a:ext cx="1407102" cy="329912"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="角丸四角形吹き出し 10">
+          <xdr:cNvPr id="23" name="角丸四角形吹き出し 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4666,10 +4684,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4716,94 +4734,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1123</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7437902" cy="6432655"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="30306" b="8534"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="686923" y="4219575"/>
-          <a:ext cx="7437902" cy="6432655"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7437902" cy="1162049"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="15486" b="73466"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695325" y="2933701"/>
-          <a:ext cx="7437902" cy="1162049"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5150,993 +5080,1025 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26" t="s">
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="61"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="86"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="49" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="51"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="49"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="55" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="78"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="49" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="51"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="49"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="52" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="54"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="81"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="57"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="78"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="43" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="26" t="s">
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26" t="s">
+      <c r="T21" s="25"/>
+      <c r="U21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="26" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26" t="s">
+      <c r="T23" s="25"/>
+      <c r="U23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="34" t="s">
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="34" t="s">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="37"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="42"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="43"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26" t="s">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="63" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="26">
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="25">
         <v>4</v>
       </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="34" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="37"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="42"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="43"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="36"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="37"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="39"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="40"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="42"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="43"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="51"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="49"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="91" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="40"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="42"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="43"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="X42" s="93"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="93"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="28" t="s">
+      <c r="M46" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:Z16"/>
+    <mergeCell ref="B10:Z11"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:Z17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:Z20"/>
+    <mergeCell ref="B21:D24"/>
+    <mergeCell ref="E21:R24"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:Z22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:Z24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="Q25:Z26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:M28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:Z37"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:Z32"/>
     <mergeCell ref="M47:Q49"/>
     <mergeCell ref="R47:T49"/>
     <mergeCell ref="U47:W49"/>
@@ -6153,38 +6115,6 @@
     <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="B42:Z43"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:Z37"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:Z32"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="Q25:Z26"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:M28"/>
-    <mergeCell ref="N27:P28"/>
-    <mergeCell ref="Q27:Z28"/>
-    <mergeCell ref="B21:D24"/>
-    <mergeCell ref="E21:R24"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:Z22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:Z24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:Z17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:Z20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:Z16"/>
-    <mergeCell ref="B10:Z11"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6209,74 +6139,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="103" t="s">
+      <c r="Q1" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="105"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="105"/>
-      <c r="Z12" s="105"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="105"/>
-      <c r="X13" s="105"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="105"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -6333,627 +6263,639 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26" t="s">
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="61"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="86"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="31" t="s">
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="101"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="57"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="78"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="101"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="54"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="81"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="57"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="78"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="33"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="101"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="54"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="81"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="57"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="78"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="36"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="37"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="96"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="39"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="40"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="96"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="39"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="40"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="42"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="43"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="102" t="s">
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="28" t="s">
+      <c r="M50" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="26"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B30:D33"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:Z37"/>
+    <mergeCell ref="M51:Q53"/>
+    <mergeCell ref="R51:T53"/>
+    <mergeCell ref="U51:W53"/>
+    <mergeCell ref="X51:Z53"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E30:Z33"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="B29:Z29"/>
     <mergeCell ref="B12:Z13"/>
@@ -6967,18 +6909,6 @@
     <mergeCell ref="B26:D28"/>
     <mergeCell ref="E26:Z28"/>
     <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="B30:D33"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="E34:Z37"/>
-    <mergeCell ref="M51:Q53"/>
-    <mergeCell ref="R51:T53"/>
-    <mergeCell ref="U51:W53"/>
-    <mergeCell ref="X51:Z53"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E30:Z33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6993,8 +6923,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7020,8 +6950,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95233" r:id="rId4" name="新規登録CheckBox">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId5">
+        <control shapeId="95236" r:id="rId4" name="変更_振込CheckBox">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95236" r:id="rId4" name="変更_振込CheckBox"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95235" r:id="rId6" name="変更_引落CheckBox">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95235" r:id="rId6" name="変更_引落CheckBox"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95234" r:id="rId8" name="申込書不備CheckBox">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95234" r:id="rId8" name="申込書不備CheckBox"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95233" r:id="rId10" name="新規登録CheckBox">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -7040,82 +7045,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95233" r:id="rId4" name="新規登録CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95234" r:id="rId6" name="申込書不備CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95234" r:id="rId6" name="申込書不備CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95235" r:id="rId8" name="変更_引落CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95235" r:id="rId8" name="変更_引落CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95236" r:id="rId10" name="変更_振込CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95236" r:id="rId10" name="変更_振込CheckBox"/>
+        <control shapeId="95233" r:id="rId10" name="新規登録CheckBox"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7167,268 +7097,338 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910642CA-7CE8-490B-976B-FF130F9D0E6C}">
+  <dimension ref="A99:O119"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
-    <col min="2" max="12" width="8.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="119" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="120" t="s">
+    <row r="99" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="121" t="s">
+      <c r="B105" s="118"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="118"/>
+      <c r="F105" s="118"/>
+      <c r="G105" s="118"/>
+      <c r="H105" s="118"/>
+      <c r="I105" s="118"/>
+      <c r="J105" s="118"/>
+      <c r="K105" s="118"/>
+      <c r="L105" s="118"/>
+      <c r="M105" s="118"/>
+    </row>
+    <row r="106" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="A106" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="123">
+      <c r="B106" s="119"/>
+      <c r="C106" s="119"/>
+      <c r="D106" s="119"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="119"/>
+      <c r="G106" s="119"/>
+      <c r="H106" s="119"/>
+      <c r="I106" s="119"/>
+      <c r="J106" s="119"/>
+      <c r="K106" s="119"/>
+      <c r="L106" s="119"/>
+      <c r="M106" s="119"/>
+    </row>
+    <row r="107" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2"/>
+      <c r="B108" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="122">
         <f ca="1">TODAY()</f>
-        <v>44308</v>
-      </c>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="122"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="22">
+        <v>44383</v>
+      </c>
+      <c r="D108" s="21"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+      <c r="B109" s="121"/>
+      <c r="C109" s="123"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="20">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,21)</f>
-        <v>44276</v>
-      </c>
-      <c r="C7" s="21" t="s">
+        <v>44368</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D111" s="17">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),20)</f>
-        <v>44306</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18">
+        <v>44397</v>
+      </c>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),27)</f>
-        <v>44313</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18">
+        <v>44404</v>
+      </c>
+      <c r="G111" s="17"/>
+      <c r="H111" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,10)</f>
-        <v>44326</v>
-      </c>
-      <c r="I7" s="19">
+        <v>44418</v>
+      </c>
+      <c r="I111" s="17">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44343</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19">
+        <v>44435</v>
+      </c>
+      <c r="J111" s="18"/>
+      <c r="K111" s="17">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44357</v>
-      </c>
-      <c r="L7" s="18">
+        <v>44449</v>
+      </c>
+      <c r="L111" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+        <v>44466</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="O111" s="22"/>
+    </row>
+    <row r="112" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" s="116"/>
+      <c r="D112" s="117"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8" t="s">
+      <c r="G112" s="5"/>
+      <c r="H112" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I112" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7" t="s">
+      <c r="J112" s="6"/>
+      <c r="K112" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L112" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14">
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="5"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="5"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="5"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="12">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),21)</f>
-        <v>44307</v>
-      </c>
-      <c r="F11" s="13" t="s">
+        <v>44398</v>
+      </c>
+      <c r="F115" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G115" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,20)</f>
-        <v>44336</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="10">
+        <v>44428</v>
+      </c>
+      <c r="H115" s="10"/>
+      <c r="I115" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44343</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10">
+        <v>44435</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44357</v>
-      </c>
-      <c r="L11" s="9">
+        <v>44449</v>
+      </c>
+      <c r="L115" s="7">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7" t="s">
+        <v>44466</v>
+      </c>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="5"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="F116" s="116"/>
+      <c r="G116" s="117"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7" t="s">
+      <c r="J116" s="6"/>
+      <c r="K116" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L116" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2"/>
+      <c r="B118" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J20" s="4"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A119" s="23"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B8:D8"/>
+  <mergeCells count="6">
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A106:M106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B112:D112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="99" max="14" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B94E5-6B55-4E38-8040-6C51AD0F240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6CAB3F-82C0-4FEE-B27D-C68A508B9D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,9 @@
     <sheet name="休止届" sheetId="17" state="hidden" r:id="rId1"/>
     <sheet name="解約通知書" sheetId="18" state="hidden" r:id="rId2"/>
     <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書" sheetId="37" r:id="rId3"/>
-    <sheet name="アプラス預金口座振替依頼書_記入例" sheetId="45" r:id="rId4"/>
+    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書_お客様用" sheetId="48" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">アプラス預金口座振替依頼書_記入例!$A$1:$O$120</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">アプラス預金口座振替依頼書_自動払込利用申込書!$A$1:$K$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">解約通知書!$A$1:$AA$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">休止届!$A$1:$AA$50</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>TEL</t>
     <phoneticPr fontId="1"/>
@@ -558,6 +557,28 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【アプラス預金口座振替依頼書　記入例】</t>
+    <rPh sb="5" eb="7">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>イライショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -825,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1170,6 +1191,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1184,7 +1223,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,44 +1290,143 @@
     <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,6 +1437,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,51 +1472,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,82 +1488,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1500,51 +1575,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1555,6 +1591,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4102,86 +4144,25 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>403514</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="285750" y="158750"/>
-          <a:ext cx="11960514" cy="17014825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="右矢印 1">
+        <xdr:cNvPr id="2" name="右矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4235,21 +4216,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="右矢印 2">
+        <xdr:cNvPr id="3" name="右矢印 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,21 +4284,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15">
+        <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4325,18 +4306,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3799609" y="19151311"/>
-          <a:ext cx="1407102" cy="383598"/>
+          <a:off x="3067050" y="714375"/>
+          <a:ext cx="923925" cy="295275"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="角丸四角形吹き出し 4">
+          <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4394,10 +4375,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <xdr:cNvPr id="6" name="テキスト ボックス 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4448,21 +4429,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18">
+        <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4470,18 +4451,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6515100" y="19160836"/>
-          <a:ext cx="1407102" cy="383598"/>
+          <a:off x="5057775" y="723900"/>
+          <a:ext cx="923925" cy="295275"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="角丸四角形吹き出し 7">
+          <xdr:cNvPr id="8" name="角丸四角形吹き出し 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4539,10 +4520,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4593,21 +4574,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21">
+        <xdr:cNvPr id="10" name="グループ化 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4615,18 +4596,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9240116" y="19141786"/>
-          <a:ext cx="1407102" cy="329912"/>
+          <a:off x="7058025" y="704850"/>
+          <a:ext cx="923925" cy="285750"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="角丸四角形吹き出し 10">
+          <xdr:cNvPr id="11" name="角丸四角形吹き出し 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4684,10 +4665,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4732,6 +4713,50 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139612</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515637</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="530137" y="3320304"/>
+          <a:ext cx="7138775" cy="8035735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5080,1025 +5105,993 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25" t="s">
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="86"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="49"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="76" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="78"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="43"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="49"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="79" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="81"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="52"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="78"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="43"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="70" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="25" t="s">
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25" t="s">
+      <c r="T21" s="33"/>
+      <c r="U21" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="25" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25" t="s">
+      <c r="T23" s="33"/>
+      <c r="U23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="35" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="35" t="s">
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="37"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="70"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="43"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="73"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="25" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="67" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="25">
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="33">
         <v>4</v>
       </c>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="35" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="37"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="70"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="73"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="37"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="70"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="40"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="81"/>
+      <c r="T34" s="81"/>
+      <c r="U34" s="81"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="82"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="43"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="73"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="49"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="31"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="56" t="s">
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="40"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="81"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="82"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="43"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="73"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="58"/>
-      <c r="Z41" s="58"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="85"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="60"/>
-      <c r="Y42" s="60"/>
-      <c r="Z42" s="60"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="87"/>
+      <c r="Y42" s="87"/>
+      <c r="Z42" s="87"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="60"/>
-      <c r="V43" s="60"/>
-      <c r="W43" s="60"/>
-      <c r="X43" s="60"/>
-      <c r="Y43" s="60"/>
-      <c r="Z43" s="60"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="87"/>
+      <c r="Z43" s="87"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="57" t="s">
+      <c r="M46" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:Z16"/>
-    <mergeCell ref="B10:Z11"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:Z17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:Z20"/>
-    <mergeCell ref="B21:D24"/>
-    <mergeCell ref="E21:R24"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:Z22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:Z24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="Q25:Z26"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:M28"/>
-    <mergeCell ref="N27:P28"/>
-    <mergeCell ref="Q27:Z28"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:Z37"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:Z32"/>
     <mergeCell ref="M47:Q49"/>
     <mergeCell ref="R47:T49"/>
     <mergeCell ref="U47:W49"/>
@@ -6115,6 +6108,38 @@
     <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="B42:Z43"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:Z37"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:Z32"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="Q25:Z26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:M28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="B21:D24"/>
+    <mergeCell ref="E21:R24"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:Z22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:Z24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:Z17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:Z20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:Z16"/>
+    <mergeCell ref="B10:Z11"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6139,74 +6164,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -6263,639 +6288,627 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25" t="s">
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="86"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="38"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="99" t="s">
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="101"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="113"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="78"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="43"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="99" t="s">
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="101"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="113"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="81"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="52"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="78"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="43"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="99" t="s">
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="101"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="113"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="81"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="52"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="78"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="43"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="37"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="70"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="108"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="40"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="82"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="40"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="82"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="43"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="73"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="115" t="s">
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="57" t="s">
+      <c r="M50" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B30:D33"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="E34:Z37"/>
-    <mergeCell ref="M51:Q53"/>
-    <mergeCell ref="R51:T53"/>
-    <mergeCell ref="U51:W53"/>
-    <mergeCell ref="X51:Z53"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E30:Z33"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="B29:Z29"/>
     <mergeCell ref="B12:Z13"/>
@@ -6909,6 +6922,18 @@
     <mergeCell ref="B26:D28"/>
     <mergeCell ref="E26:Z28"/>
     <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="B30:D33"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:Z37"/>
+    <mergeCell ref="M51:Q53"/>
+    <mergeCell ref="R51:T53"/>
+    <mergeCell ref="U51:W53"/>
+    <mergeCell ref="X51:Z53"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E30:Z33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6924,7 +6949,7 @@
   <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6950,8 +6975,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="95236" r:id="rId4" name="変更_振込CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="95233" r:id="rId4" name="新規登録CheckBox">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95233" r:id="rId4" name="新規登録CheckBox"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95234" r:id="rId6" name="申込書不備CheckBox">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95234" r:id="rId6" name="申込書不備CheckBox"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95235" r:id="rId8" name="変更_引落CheckBox">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="95235" r:id="rId8" name="変更_引落CheckBox"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="95236" r:id="rId10" name="変更_振込CheckBox">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6970,82 +7070,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="95236" r:id="rId4" name="変更_振込CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95235" r:id="rId6" name="変更_引落CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95235" r:id="rId6" name="変更_引落CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95234" r:id="rId8" name="申込書不備CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95234" r:id="rId8" name="申込書不備CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95233" r:id="rId10" name="新規登録CheckBox">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95233" r:id="rId10" name="新規登録CheckBox"/>
+        <control shapeId="95236" r:id="rId10" name="変更_振込CheckBox"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7097,338 +7122,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910642CA-7CE8-490B-976B-FF130F9D0E6C}">
-  <dimension ref="A99:O119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C750E8C4-718E-4DBB-8420-6CBF673E694D}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="12" width="8.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="99" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="118" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="118"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="118"/>
-      <c r="E105" s="118"/>
-      <c r="F105" s="118"/>
-      <c r="G105" s="118"/>
-      <c r="H105" s="118"/>
-      <c r="I105" s="118"/>
-      <c r="J105" s="118"/>
-      <c r="K105" s="118"/>
-      <c r="L105" s="118"/>
-      <c r="M105" s="118"/>
-    </row>
-    <row r="106" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="A106" s="119" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B106" s="119"/>
-      <c r="C106" s="119"/>
-      <c r="D106" s="119"/>
-      <c r="E106" s="119"/>
-      <c r="F106" s="119"/>
-      <c r="G106" s="119"/>
-      <c r="H106" s="119"/>
-      <c r="I106" s="119"/>
-      <c r="J106" s="119"/>
-      <c r="K106" s="119"/>
-      <c r="L106" s="119"/>
-      <c r="M106" s="119"/>
-    </row>
-    <row r="107" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="2"/>
-      <c r="B108" s="120" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="122">
+      <c r="C4" s="121">
         <f ca="1">TODAY()</f>
-        <v>44383</v>
-      </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="121"/>
-      <c r="C109" s="123"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="5"/>
-      <c r="B111" s="20">
+        <v>44442</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="120"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="20">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,21)</f>
-        <v>44368</v>
-      </c>
-      <c r="C111" s="19" t="s">
+        <v>44429</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="17">
+      <c r="D7" s="17">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),20)</f>
-        <v>44397</v>
-      </c>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16">
+        <v>44459</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),27)</f>
-        <v>44404</v>
-      </c>
-      <c r="G111" s="17"/>
-      <c r="H111" s="16">
+        <v>44466</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,10)</f>
-        <v>44418</v>
-      </c>
-      <c r="I111" s="17">
+        <v>44479</v>
+      </c>
+      <c r="I7" s="17">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44435</v>
-      </c>
-      <c r="J111" s="18"/>
-      <c r="K111" s="17">
+        <v>44496</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44449</v>
-      </c>
-      <c r="L111" s="16">
+        <v>44510</v>
+      </c>
+      <c r="L7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44466</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="O111" s="22"/>
-    </row>
-    <row r="112" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="5"/>
-      <c r="B112" s="116" t="s">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="116"/>
-      <c r="D112" s="117"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="6" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I112" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J112" s="6"/>
-      <c r="K112" s="5" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L112" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="5"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="2"/>
-    </row>
-    <row r="114" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="5"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="5"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="12">
+    </row>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),21)</f>
-        <v>44398</v>
-      </c>
-      <c r="F115" s="11" t="s">
+        <v>44460</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,20)</f>
-        <v>44428</v>
-      </c>
-      <c r="H115" s="10"/>
-      <c r="I115" s="8">
+        <v>44489</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44435</v>
-      </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="8">
+        <v>44496</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44449</v>
-      </c>
-      <c r="L115" s="7">
+        <v>44510</v>
+      </c>
+      <c r="L11" s="7">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44466</v>
-      </c>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="5"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="116" t="s">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="F116" s="116"/>
-      <c r="G116" s="117"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="5" t="s">
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J116" s="6"/>
-      <c r="K116" s="5" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L116" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-    </row>
-    <row r="118" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="2"/>
-      <c r="B118" s="3" t="s">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A119" s="23"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
-      <c r="M119" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="A17" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J20" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="A106:M106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B112:D112"/>
+  <mergeCells count="7">
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="99" max="14" man="1"/>
-  </rowBreaks>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6CAB3F-82C0-4FEE-B27D-C68A508B9D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6CDCD-A5E7-4433-8B1E-EA791727D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="休止届" sheetId="17" state="hidden" r:id="rId1"/>
     <sheet name="解約通知書" sheetId="18" state="hidden" r:id="rId2"/>
-    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書" sheetId="37" r:id="rId3"/>
-    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書_お客様用" sheetId="48" r:id="rId4"/>
+    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書-org" sheetId="37" r:id="rId3"/>
+    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書" sheetId="53" r:id="rId4"/>
+    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書_お客様" sheetId="49" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">アプラス預金口座振替依頼書_自動払込利用申込書!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">アプラス預金口座振替依頼書_自動払込利用申込書!$A$1:$Z$145</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">アプラス預金口座振替依頼書_自動払込利用申込書_お客様!$A$1:$M$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'アプラス預金口座振替依頼書_自動払込利用申込書-org'!$A$1:$K$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">解約通知書!$A$1:$AA$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">休止届!$A$1:$AA$50</definedName>
+    <definedName name="関東支店">[1]医院向け!$M$12:$Q$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -592,7 +599,7 @@
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,14 +805,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1223,7 +1222,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,9 +1265,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,6 +1298,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,13 +1577,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4144,6 +4146,496 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>416905</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>149295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17561905" cy="24838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="APLUSコード">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10167938" y="2071688"/>
+          <a:ext cx="5333999" cy="500062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="274320" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="dist"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="契約者名">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3214687" y="5357812"/>
+          <a:ext cx="13215937" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="契約者名フリガナ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3214687" y="4786313"/>
+          <a:ext cx="13215937" cy="523874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="18288" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="契約者郵便番号">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3690937" y="6905625"/>
+          <a:ext cx="12668250" cy="500061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="10800" rIns="91440" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="契約者住所">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3214688" y="7334250"/>
+          <a:ext cx="13192124" cy="881062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" numCol="1" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="契約者電話番号">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="7881937"/>
+          <a:ext cx="4452938" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="27432" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4162,7 +4654,7 @@
         <xdr:cNvPr id="2" name="右矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4230,7 +4722,7 @@
         <xdr:cNvPr id="3" name="右矢印 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4298,7 +4790,7 @@
         <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4306,8 +4798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3067050" y="714375"/>
-          <a:ext cx="923925" cy="295275"/>
+          <a:off x="3056965" y="705410"/>
+          <a:ext cx="916081" cy="291914"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
@@ -4317,7 +4809,7 @@
           <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4378,7 +4870,7 @@
           <xdr:cNvPr id="6" name="テキスト ボックス 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4443,7 +4935,7 @@
         <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4451,8 +4943,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5057775" y="723900"/>
-          <a:ext cx="923925" cy="295275"/>
+          <a:off x="5035924" y="714935"/>
+          <a:ext cx="916080" cy="291914"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
@@ -4462,7 +4954,7 @@
           <xdr:cNvPr id="8" name="角丸四角形吹き出し 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4523,7 +5015,7 @@
           <xdr:cNvPr id="9" name="テキスト ボックス 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4588,7 +5080,7 @@
         <xdr:cNvPr id="10" name="グループ化 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4596,8 +5088,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7058025" y="704850"/>
-          <a:ext cx="923925" cy="285750"/>
+          <a:off x="7024407" y="695885"/>
+          <a:ext cx="916081" cy="284069"/>
           <a:chOff x="3381375" y="361950"/>
           <a:chExt cx="942975" cy="276225"/>
         </a:xfrm>
@@ -4607,7 +5099,7 @@
           <xdr:cNvPr id="11" name="角丸四角形吹き出し 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4668,7 +5160,7 @@
           <xdr:cNvPr id="12" name="テキスト ボックス 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4717,23 +5209,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139612</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>515637</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>70527</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>78439</xdr:rowOff>
+      <xdr:rowOff>122462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4742,15 +5234,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="530137" y="3320304"/>
-          <a:ext cx="7138775" cy="8035735"/>
+          <a:off x="312965" y="3445327"/>
+          <a:ext cx="7587112" cy="7954735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4760,6 +5258,43 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="医院向け"/>
+      <sheetName val="医院向け 手書き"/>
+      <sheetName val="販売店向け手書き"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="M12" t="str">
+            <v>関東第一支店</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>関東第二支店</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>関東第三支店</v>
+          </cell>
+          <cell r="P12" t="str">
+            <v>関東第四支店</v>
+          </cell>
+          <cell r="Q12" t="str">
+            <v>関東第五支店</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5105,990 +5640,990 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33" t="s">
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="43"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="44"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="53"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="43"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="44"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="59" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="33" t="s">
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33" t="s">
+      <c r="T21" s="34"/>
+      <c r="U21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="33" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33" t="s">
+      <c r="T23" s="34"/>
+      <c r="U23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="68" t="s">
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="71"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="73"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="74"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="33" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="75" t="s">
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="33">
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="34">
         <v>4</v>
       </c>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="68" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="71"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="73"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="74"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="70"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="71"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="81"/>
-      <c r="T34" s="81"/>
-      <c r="U34" s="81"/>
-      <c r="V34" s="81"/>
-      <c r="W34" s="81"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="82"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="83"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="73"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="74"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="31"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="32"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="83" t="s">
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
-      <c r="W39" s="81"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="81"/>
-      <c r="Z39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="83"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="73"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="74"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="85"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="87"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="88"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="87"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="88"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="84" t="s">
+      <c r="M46" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -6164,74 +6699,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="99" t="s">
+      <c r="Q1" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="103"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -6288,624 +6823,624 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33" t="s">
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="111" t="s">
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="114"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="43"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="44"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="111" t="s">
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="112"/>
-      <c r="Z23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="114"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="52"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="53"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="43"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="44"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="111" t="s">
+      <c r="C26" s="107"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="114"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="52"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="53"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="43"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="44"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="70"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="71"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81"/>
-      <c r="U31" s="81"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="81"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="82"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="83"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
-      <c r="U32" s="81"/>
-      <c r="V32" s="81"/>
-      <c r="W32" s="81"/>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="82"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="83"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="94"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="73"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="74"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="98" t="s">
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="84" t="s">
+      <c r="M50" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -6948,8 +7483,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6962,8 +7497,8 @@
     <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1"/>
@@ -7122,11 +7657,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C750E8C4-718E-4DBB-8420-6CBF673E694D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5226F1-DE17-466C-B356-6C06663C1FD7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AK88" sqref="AK88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="45" fitToWidth="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A60519-A793-4E6F-B8DC-0D425F14E583}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7134,122 +7689,122 @@
     <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
     <col min="2" max="12" width="8.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="5.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="22"/>
+    <col min="14" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="121">
+      <c r="C4" s="122">
         <f ca="1">TODAY()</f>
-        <v>44442</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>44643</v>
+      </c>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="120"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,21)</f>
-        <v>44429</v>
-      </c>
-      <c r="C7" s="19" t="s">
+        <v>44613</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),20)</f>
-        <v>44459</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16">
+        <v>44640</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),27)</f>
-        <v>44466</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16">
+        <v>44647</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,10)</f>
-        <v>44479</v>
-      </c>
-      <c r="I7" s="17">
+        <v>44661</v>
+      </c>
+      <c r="I7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44496</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17">
+        <v>44678</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44510</v>
-      </c>
-      <c r="L7" s="16">
+        <v>44691</v>
+      </c>
+      <c r="L7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44527</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="26" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7284,40 +7839,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="12">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),21)</f>
-        <v>44460</v>
+        <v>44641</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,20)</f>
-        <v>44489</v>
+        <v>44671</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44496</v>
+        <v>44678</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44510</v>
+        <v>44691</v>
       </c>
       <c r="L11" s="7">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44527</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="6"/>
@@ -7334,40 +7889,40 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="J20" s="25"/>
+      <c r="J20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7380,8 +7935,9 @@
     <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
@@ -5,27 +5,25 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\20220502-アプラス預金口座振替依頼書・自動払込利用申込書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6CDCD-A5E7-4433-8B1E-EA791727D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B251641F-75BC-4072-BC6A-49353105B763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="857" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="休止届" sheetId="17" state="hidden" r:id="rId1"/>
     <sheet name="解約通知書" sheetId="18" state="hidden" r:id="rId2"/>
-    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書-org" sheetId="37" r:id="rId3"/>
-    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書" sheetId="53" r:id="rId4"/>
-    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書_お客様" sheetId="49" r:id="rId5"/>
+    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書" sheetId="58" r:id="rId3"/>
+    <sheet name="アプラス預金口座振替依頼書_自動払込利用申込書_お客様" sheetId="49" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">アプラス預金口座振替依頼書_自動払込利用申込書!$A$1:$Z$145</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">アプラス預金口座振替依頼書_自動払込利用申込書_お客様!$A$1:$M$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'アプラス預金口座振替依頼書_自動払込利用申込書-org'!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">アプラス預金口座振替依頼書_自動払込利用申込書!$A$1:$K$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">アプラス預金口座振替依頼書_自動払込利用申込書_お客様!$A$1:$M$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">解約通知書!$A$1:$AA$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">休止届!$A$1:$AA$50</definedName>
     <definedName name="関東支店">[1]医院向け!$M$12:$Q$12</definedName>
@@ -1304,6 +1302,63 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,173 +1377,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,60 +1573,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1624,28 +1622,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Label" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Label" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3023,25 +3009,25 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>59856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>203828</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>148861</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12354</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,17 +3037,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:grayscl/>
           <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:saturation sat="400000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -3073,8 +3049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="19050"/>
-          <a:ext cx="7030872" cy="9958420"/>
+          <a:off x="23813" y="59856"/>
+          <a:ext cx="7300912" cy="10239498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3086,22 +3062,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>425583</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>58390</xdr:rowOff>
+      <xdr:colOff>585884</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>486380</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>82203</xdr:rowOff>
+      <xdr:colOff>650333</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>37572</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="顧客No">
+        <xdr:cNvPr id="7" name="得意先No">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,28 +3085,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1111383" y="58390"/>
-          <a:ext cx="746597" cy="195263"/>
+          <a:off x="1274615" y="527619"/>
+          <a:ext cx="753180" cy="184030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3140,31 +3114,35 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>						</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>425584</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>125016</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>484861</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>140096</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="得意先No">
+        <xdr:cNvPr id="8" name="契約者名フリガナ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3172,404 +3150,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114315" y="286208"/>
-          <a:ext cx="748008" cy="183600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95233" name="新規登録CheckBox" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s95233"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001740100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>327421</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>125015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>364788</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>148829</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="得意先Noタイトル">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="327421" y="296465"/>
-          <a:ext cx="723167" cy="195264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95234" name="申込書不備CheckBox" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s95234"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002740100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95235" name="変更_引落CheckBox" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s95235"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003740100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95236" name="変更_振込CheckBox" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s95236"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004740100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>512884</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>490904</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>73270</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="契約者名フリガナ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1201615" y="1846386"/>
-          <a:ext cx="5487866" cy="241788"/>
+          <a:off x="1447800" y="2111828"/>
+          <a:ext cx="5355771" cy="250371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -3608,6 +3196,10 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
@@ -3616,23 +3208,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>520212</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>534866</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="契約者名">
+        <xdr:cNvPr id="9" name="契約者名">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3640,652 +3232,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1208943" y="2080846"/>
-          <a:ext cx="5524500" cy="644769"/>
+          <a:off x="1447801" y="2367643"/>
+          <a:ext cx="5350328" cy="653143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>520212</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>36633</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>534865</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="契約者住所">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1208943" y="2894133"/>
-          <a:ext cx="5524499" cy="410309"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="0" bIns="0" numCol="1" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>29307</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>527537</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="契約者郵便番号">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1406769" y="2725616"/>
-          <a:ext cx="5319345" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="10800" rIns="91440" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>608133</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>490904</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="契約者電話番号">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4740518" y="3084634"/>
-          <a:ext cx="1948963" cy="197827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="27432" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="APLUSコード">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4110405" y="710711"/>
-          <a:ext cx="2234710" cy="219807"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="274320" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="dist"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95237" name="顧客Noタイトルラベル" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s95237"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005740100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:noFill/>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI"/>
-                  <a:ea typeface="Meiryo UI"/>
-                </a:rPr>
-                <a:t>顧客No：</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95238" name="得意先Noタイトルラベル" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s95238"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006740100}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:noFill/>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI"/>
-                  <a:ea typeface="Meiryo UI"/>
-                </a:rPr>
-                <a:t>得意先No：</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>416905</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>149295</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="17561905" cy="24838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="APLUSコード">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10167938" y="2071688"/>
-          <a:ext cx="5333999" cy="500062"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="274320" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="dist"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="契約者名">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3214687" y="5357812"/>
-          <a:ext cx="13215937" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -4332,23 +3286,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>232172</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="契約者名フリガナ">
+        <xdr:cNvPr id="10" name="契約者郵便番号">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4356,92 +3310,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3214687" y="4786313"/>
-          <a:ext cx="13215937" cy="523874"/>
+          <a:off x="1603772" y="3031671"/>
+          <a:ext cx="5188914" cy="185058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="18288" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="契約者郵便番号">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3690937" y="6905625"/>
-          <a:ext cx="12668250" cy="500061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -4471,23 +3347,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620485</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="契約者住所">
+        <xdr:cNvPr id="11" name="契約者住所">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4495,26 +3371,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3214688" y="7334250"/>
-          <a:ext cx="13192124" cy="881062"/>
+          <a:off x="1447800" y="3216729"/>
+          <a:ext cx="5344885" cy="408214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -4551,23 +3427,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99372</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="契約者電話番号">
+        <xdr:cNvPr id="12" name="APLUSコード">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4575,28 +3451,88 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11906250" y="7881937"/>
-          <a:ext cx="4452938" cy="285750"/>
+          <a:off x="4214172" y="942294"/>
+          <a:ext cx="2197514" cy="238806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="274320" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="dist"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103414</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="契約者電話番号">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4904014" y="3412671"/>
+          <a:ext cx="1894115" cy="201386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -4631,10 +3567,333 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>665389</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>40824</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>322489</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>59873</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="104449" name="新規" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s104449"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001980100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI"/>
+                  <a:ea typeface="Meiryo UI"/>
+                </a:rPr>
+                <a:t>  新 規</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>665387</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>21773</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>322487</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>40824</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="104450" name="変更" descr="  変更" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s104450"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002980100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI"/>
+                  <a:ea typeface="Meiryo UI"/>
+                </a:rPr>
+                <a:t>  変 更</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>665385</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>2724</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>322485</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>21773</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="104451" name="不備" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s104451"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003980100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI"/>
+                  <a:ea typeface="Meiryo UI"/>
+                </a:rPr>
+                <a:t>  不 備</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>588238</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>164937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654207</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="顧客No">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1274038" y="336387"/>
+          <a:ext cx="751769" cy="187176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4654,7 +3913,7 @@
         <xdr:cNvPr id="2" name="右矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4722,7 +3981,7 @@
         <xdr:cNvPr id="3" name="右矢印 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4049,7 @@
         <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4809,7 +4068,7 @@
           <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4870,7 +4129,7 @@
           <xdr:cNvPr id="6" name="テキスト ボックス 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4935,7 +4194,7 @@
         <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4954,7 +4213,7 @@
           <xdr:cNvPr id="8" name="角丸四角形吹き出し 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5015,7 +4274,7 @@
           <xdr:cNvPr id="9" name="テキスト ボックス 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5080,7 +4339,7 @@
         <xdr:cNvPr id="10" name="グループ化 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5099,7 +4358,7 @@
           <xdr:cNvPr id="11" name="角丸四角形吹き出し 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5160,7 +4419,7 @@
           <xdr:cNvPr id="12" name="テキスト ボックス 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5225,7 +4484,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5640,993 +4899,1025 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34" t="s">
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="39"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="88"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="32"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="51"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="44"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="80"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="32"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="51"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="51" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="53"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="83"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="44"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="80"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="60" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="34" t="s">
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34" t="s">
+      <c r="T21" s="27"/>
+      <c r="U21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="34" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34" t="s">
+      <c r="T23" s="27"/>
+      <c r="U23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="69" t="s">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="70"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="71"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="39"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="74"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="45"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="34" t="s">
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="76" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="34">
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="27">
         <v>4</v>
       </c>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="69" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
-      <c r="Z31" s="71"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="39"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="74"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="45"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="71"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="39"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="83"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="42"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="74"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="45"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="32"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="51"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="84" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="83"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="42"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="74"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="45"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="86"/>
-      <c r="T41" s="86"/>
-      <c r="U41" s="86"/>
-      <c r="V41" s="86"/>
-      <c r="W41" s="86"/>
-      <c r="X41" s="86"/>
-      <c r="Y41" s="86"/>
-      <c r="Z41" s="86"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="88"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="62"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="62"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="62"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="85" t="s">
+      <c r="M46" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:Z16"/>
+    <mergeCell ref="B10:Z11"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:Z17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:Z18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:Z20"/>
+    <mergeCell ref="B21:D24"/>
+    <mergeCell ref="E21:R24"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:Z22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="U23:Z24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="N25:P26"/>
+    <mergeCell ref="Q25:Z26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:M28"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:Z37"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:Z32"/>
     <mergeCell ref="M47:Q49"/>
     <mergeCell ref="R47:T49"/>
     <mergeCell ref="U47:W49"/>
@@ -6643,38 +5934,6 @@
     <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="B42:Z43"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:Z37"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:Z32"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="N25:P26"/>
-    <mergeCell ref="Q25:Z26"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:M28"/>
-    <mergeCell ref="N27:P28"/>
-    <mergeCell ref="Q27:Z28"/>
-    <mergeCell ref="B21:D24"/>
-    <mergeCell ref="E21:R24"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="U21:Z22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="U23:Z24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:Z17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:Z18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:Z20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:Z16"/>
-    <mergeCell ref="B10:Z11"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6699,74 +5958,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="100" t="s">
+      <c r="Q1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -6823,627 +6082,639 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="39"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="88"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="112" t="s">
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="114"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="103"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="44"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="80"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="112" t="s">
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="114"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="103"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="53"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="83"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="44"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="80"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="112" t="s">
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="114"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="103"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="53"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="83"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="44"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="80"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="71"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="39"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="83"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="42"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="83"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="42"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="95"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="74"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="45"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="99" t="s">
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="85" t="s">
+      <c r="M50" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B30:D33"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:Z37"/>
+    <mergeCell ref="M51:Q53"/>
+    <mergeCell ref="R51:T53"/>
+    <mergeCell ref="U51:W53"/>
+    <mergeCell ref="X51:Z53"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="E30:Z33"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="B29:Z29"/>
     <mergeCell ref="B12:Z13"/>
@@ -7457,18 +6728,6 @@
     <mergeCell ref="B26:D28"/>
     <mergeCell ref="E26:Z28"/>
     <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="B30:D33"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="E34:Z37"/>
-    <mergeCell ref="M51:Q53"/>
-    <mergeCell ref="R51:T53"/>
-    <mergeCell ref="U51:W53"/>
-    <mergeCell ref="X51:Z53"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="E30:Z33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7479,204 +6738,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A60"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="11" max="11" width="2.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <dataConsolidate/>
-  <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="111" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95233" r:id="rId4" name="新規登録CheckBox">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95233" r:id="rId4" name="新規登録CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95234" r:id="rId6" name="申込書不備CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95234" r:id="rId6" name="申込書不備CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95235" r:id="rId8" name="変更_引落CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95235" r:id="rId8" name="変更_引落CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95236" r:id="rId10" name="変更_振込CheckBox">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="95236" r:id="rId10" name="変更_振込CheckBox"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95237" r:id="rId12" name="顧客Noタイトルラベル">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="95238" r:id="rId13" name="得意先Noタイトルラベル">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5226F1-DE17-466C-B356-6C06663C1FD7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E2EEB-A312-414A-A4F5-D468BB33E8DB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AK88" sqref="AK88"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="45" fitToWidth="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0" top="0.59055118110236227" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="104449" r:id="rId4" name="新規">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="104450" r:id="rId5" name="変更">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="  変更">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="104451" r:id="rId6" name="不備">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A60519-A793-4E6F-B8DC-0D425F14E583}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -7733,7 +6884,7 @@
       </c>
       <c r="C4" s="122">
         <f ca="1">TODAY()</f>
-        <v>44643</v>
+        <v>44690</v>
       </c>
       <c r="D4" s="20"/>
     </row>
@@ -7749,37 +6900,37 @@
       <c r="A7" s="5"/>
       <c r="B7" s="19">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,21)</f>
-        <v>44613</v>
+        <v>44672</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),20)</f>
-        <v>44640</v>
+        <v>44701</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),27)</f>
-        <v>44647</v>
+        <v>44708</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,10)</f>
-        <v>44661</v>
+        <v>44722</v>
       </c>
       <c r="I7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44678</v>
+        <v>44739</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44691</v>
+        <v>44752</v>
       </c>
       <c r="L7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44708</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -7839,28 +6990,28 @@
       <c r="D11" s="13"/>
       <c r="E11" s="12">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),21)</f>
-        <v>44641</v>
+        <v>44702</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,20)</f>
-        <v>44671</v>
+        <v>44732</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44678</v>
+        <v>44739</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44691</v>
+        <v>44752</v>
       </c>
       <c r="L11" s="7">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44708</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">

--- a/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/16-アプラス預金口座振替依頼書・自動払込利用申込書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\20220502-アプラス預金口座振替依頼書・自動払込利用申込書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\20220614-アプラス預金口座振替依頼書・自動払込利用申込書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B251641F-75BC-4072-BC6A-49353105B763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2C685A-9D89-48A0-9A7C-FE5AA5A0957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="857" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3012,15 +3012,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:colOff>214311</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59856</xdr:rowOff>
+      <xdr:rowOff>46249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>12354</xdr:rowOff>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>175639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3049,8 +3049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23813" y="59856"/>
-          <a:ext cx="7300912" cy="10239498"/>
+          <a:off x="214311" y="46249"/>
+          <a:ext cx="7246483" cy="10566069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3572,15 +3572,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>665389</xdr:colOff>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>40824</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>322489</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>59873</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3658,15 +3658,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>665387</xdr:colOff>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>21773</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>322487</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>40824</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3744,15 +3744,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>665385</xdr:colOff>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>2724</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>322485</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>21773</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6741,14 +6741,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9E2EEB-A312-414A-A4F5-D468BB33E8DB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0" top="0.59055118110236227" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.59055118110236227" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -6884,7 +6882,7 @@
       </c>
       <c r="C4" s="122">
         <f ca="1">TODAY()</f>
-        <v>44690</v>
+        <v>44726</v>
       </c>
       <c r="D4" s="20"/>
     </row>
@@ -6900,37 +6898,37 @@
       <c r="A7" s="5"/>
       <c r="B7" s="19">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())-1,21)</f>
-        <v>44672</v>
+        <v>44702</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),20)</f>
-        <v>44701</v>
+        <v>44732</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),27)</f>
-        <v>44708</v>
+        <v>44739</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,10)</f>
-        <v>44722</v>
+        <v>44752</v>
       </c>
       <c r="I7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44739</v>
+        <v>44769</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="16">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44752</v>
+        <v>44783</v>
       </c>
       <c r="L7" s="15">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44769</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -6990,28 +6988,28 @@
       <c r="D11" s="13"/>
       <c r="E11" s="12">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),21)</f>
-        <v>44702</v>
+        <v>44733</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,20)</f>
-        <v>44732</v>
+        <v>44762</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+1,27)</f>
-        <v>44739</v>
+        <v>44769</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,10)</f>
-        <v>44752</v>
+        <v>44783</v>
       </c>
       <c r="L11" s="7">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+2,27)</f>
-        <v>44769</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
